--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,36 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,325 +82,343 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cookies</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cooke</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>always</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
-    <t>exactly</t>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>well</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>pot</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>easily</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>pot</t>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>buy</t>
@@ -403,34 +427,19 @@
     <t>better</t>
   </si>
   <si>
-    <t>time</t>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>product</t>
   </si>
   <si>
     <t>work</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>size</t>
   </si>
   <si>
     <t>would</t>
@@ -794,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q124"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +811,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,13 +872,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -905,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -913,13 +922,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8148148148148148</v>
+        <v>0.65</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="L4">
+        <v>88</v>
+      </c>
+      <c r="M4">
+        <v>88</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>0.956989247311828</v>
-      </c>
-      <c r="L4">
-        <v>89</v>
-      </c>
-      <c r="M4">
-        <v>89</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.90625</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1005,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1013,13 +1022,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4573643410852713</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8761609907120743</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>566</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>566</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1055,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,13 +1072,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4141414141414141</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8828125</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1105,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1113,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2666666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L8">
-        <v>570</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>570</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,37 +1172,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2450980392156863</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>0.04</v>
-      </c>
-      <c r="F9">
-        <v>0.96</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1205,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2108108108108108</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8409090909090909</v>
+        <v>0.7705627705627706</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1255,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,28 +1272,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1237113402061856</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0.7662337662337663</v>
@@ -1309,17 +1318,41 @@
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1649484536082474</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>0.03</v>
+      </c>
+      <c r="F12">
+        <v>0.97</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>162</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7491525423728813</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L12">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1331,21 +1364,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1496598639455782</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0.04</v>
+      </c>
+      <c r="F13">
+        <v>0.96</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>125</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.7445887445887446</v>
+        <v>0.7525423728813559</v>
       </c>
       <c r="L13">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="M13">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,21 +1414,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1383,21 +1440,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.734375</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,21 +1466,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7333333333333333</v>
+        <v>0.6886035313001605</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>858</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>858</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1435,15 +1492,15 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6857142857142857</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L17">
         <v>48</v>
@@ -1461,21 +1518,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="L18">
         <v>33</v>
       </c>
-      <c r="K18">
-        <v>0.6755020080321286</v>
-      </c>
-      <c r="L18">
-        <v>841</v>
-      </c>
       <c r="M18">
-        <v>842</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,24 +1541,24 @@
         <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>404</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.647887323943662</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,21 +1570,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K20">
         <v>0.6470588235294118</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,12 +1596,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21">
         <v>0.6461538461538462</v>
@@ -1570,16 +1627,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6346153846153846</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="L22">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M22">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1591,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6301369863013698</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1617,21 +1674,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6285714285714286</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1643,21 +1700,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1669,21 +1726,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6122448979591837</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1695,21 +1752,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6031746031746031</v>
+        <v>0.6107784431137725</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1721,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6029411764705882</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1747,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L29">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="M29">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1773,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5903614457831325</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1799,21 +1856,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5897435897435898</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1825,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5802469135802469</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1851,47 +1908,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>0.5897435897435898</v>
+      </c>
+      <c r="L33">
+        <v>69</v>
+      </c>
+      <c r="M33">
+        <v>69</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>48</v>
-      </c>
-      <c r="K33">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L33">
-        <v>33</v>
-      </c>
-      <c r="M33">
-        <v>33</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.562874251497006</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L34">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1903,21 +1960,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5625</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1929,21 +1986,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1955,21 +2012,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5538461538461539</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1981,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5510204081632653</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2007,21 +2064,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5409836065573771</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2033,21 +2090,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5338345864661654</v>
+        <v>0.53</v>
       </c>
       <c r="L40">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="M40">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2059,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5299145299145299</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2085,47 +2142,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5161290322580645</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2137,21 +2194,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.4868421052631579</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2163,47 +2220,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.4852941176470588</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>29</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>33</v>
-      </c>
-      <c r="M45">
-        <v>33</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>35</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4833333333333333</v>
+        <v>0.4552529182879377</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2215,21 +2272,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4821428571428572</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2241,21 +2298,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.4819277108433735</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L48">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="M48">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2267,21 +2324,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>86</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4680851063829787</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2293,21 +2350,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.45</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L50">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2319,21 +2376,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.4436274509803921</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L51">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="M51">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2345,21 +2402,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>227</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.4396887159533074</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L52">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2371,21 +2428,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.4285714285714285</v>
+        <v>0.4150684931506849</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>303</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2397,21 +2454,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>36</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.4178082191780822</v>
+        <v>0.390625</v>
       </c>
       <c r="L54">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2423,21 +2480,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>425</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.4054054054054054</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L55">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2449,21 +2506,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.4047619047619048</v>
+        <v>0.3884892086330936</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2475,21 +2532,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.381294964028777</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L57">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2501,21 +2558,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.3779904306220095</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L58">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2527,15 +2584,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.3693693693693694</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="L59">
         <v>41</v>
@@ -2553,21 +2610,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.3684210526315789</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L60">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M60">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2579,21 +2636,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.3663366336633663</v>
+        <v>0.3642384105960265</v>
       </c>
       <c r="L61">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M61">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2605,21 +2662,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.3611111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2631,21 +2688,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.359375</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L63">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2657,21 +2714,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.3518518518518519</v>
+        <v>0.34375</v>
       </c>
       <c r="L64">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2683,21 +2740,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.3509933774834437</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L65">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2709,21 +2766,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.341227125941873</v>
+        <v>0.331896551724138</v>
       </c>
       <c r="L66">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M66">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2732,50 +2789,50 @@
         <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.3221476510067114</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L67">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.3194444444444444</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2787,21 +2844,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.3176470588235294</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L69">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M69">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2813,47 +2870,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.3035714285714285</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L70">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.2991452991452991</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L71">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="M71">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2865,47 +2922,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>82</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.291025641025641</v>
+        <v>0.28</v>
       </c>
       <c r="L72">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M72">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N72">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.2868852459016393</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M73">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2917,21 +2974,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.274390243902439</v>
+        <v>0.27</v>
       </c>
       <c r="L74">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2943,21 +3000,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.2728476821192053</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L75">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="M75">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2969,21 +3026,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>549</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.2666666666666667</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2995,21 +3052,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.2601880877742947</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="L77">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M77">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3021,21 +3078,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>236</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.26</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3047,21 +3104,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>74</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.2583025830258303</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L79">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M79">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3073,47 +3130,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>201</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.2558139534883721</v>
+        <v>0.2384823848238482</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>64</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.2525252525252525</v>
+        <v>0.2361623616236162</v>
       </c>
       <c r="L81">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M81">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3125,125 +3182,125 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>74</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.2456140350877193</v>
+        <v>0.2331288343558282</v>
       </c>
       <c r="L82">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="M82">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>344</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.2421875</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L83">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M83">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N83">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>0.2365591397849462</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M84">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>71</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.2297297297297297</v>
+        <v>0.2227272727272727</v>
       </c>
       <c r="L85">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M85">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="N85">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>285</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.2201834862385321</v>
+        <v>0.2213740458015267</v>
       </c>
       <c r="L86">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M86">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3255,41 +3312,41 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K87">
-        <v>0.2153846153846154</v>
+        <v>0.2177033492822966</v>
       </c>
       <c r="L87">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M87">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N87">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O87">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>102</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.2153846153846154</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="L88">
         <v>28</v>
@@ -3307,21 +3364,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.2142857142857143</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L89">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M89">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3333,12 +3390,12 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K90">
         <v>0.2128712871287129</v>
@@ -3364,16 +3421,16 @@
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.2068181818181818</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="L91">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M91">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3385,99 +3442,99 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>349</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>0.2058823529411765</v>
+        <v>0.2103448275862069</v>
       </c>
       <c r="L92">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M92">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.2049689440993789</v>
+        <v>0.2035398230088496</v>
       </c>
       <c r="L93">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M93">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N93">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.2035398230088496</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="L94">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M94">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.1970260223048327</v>
+        <v>0.19559902200489</v>
       </c>
       <c r="L95">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="M95">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="N95">
         <v>0.98</v>
@@ -3489,47 +3546,47 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>216</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.1923076923076923</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L96">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M96">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>126</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1886792452830189</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L97">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M97">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N97">
         <v>0.97</v>
@@ -3541,21 +3598,21 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1885441527446301</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="L98">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="M98">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3567,99 +3624,99 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>340</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1748251748251748</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L99">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M99">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N99">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K100">
-        <v>0.1691176470588235</v>
+        <v>0.1740890688259109</v>
       </c>
       <c r="L100">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="M100">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="N100">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O100">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>339</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K101">
-        <v>0.1688311688311688</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="L101">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M101">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K102">
-        <v>0.1649484536082474</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="L102">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M102">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3671,73 +3728,73 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>243</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K103">
-        <v>0.1590909090909091</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L103">
+        <v>27</v>
+      </c>
+      <c r="M103">
         <v>28</v>
       </c>
-      <c r="M103">
-        <v>29</v>
-      </c>
       <c r="N103">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O103">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K104">
-        <v>0.1575757575757576</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M104">
         <v>26</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K105">
-        <v>0.1568627450980392</v>
+        <v>0.1638655462184874</v>
       </c>
       <c r="L105">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M105">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3749,82 +3806,82 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>129</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K106">
-        <v>0.1565934065934066</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="L106">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M106">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="N106">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>307</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K107">
-        <v>0.1564625850340136</v>
+        <v>0.1554054054054054</v>
       </c>
       <c r="L107">
         <v>23</v>
       </c>
       <c r="M107">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N107">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K108">
-        <v>0.1449275362318841</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="L108">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M108">
         <v>31</v>
       </c>
       <c r="N108">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
         <v>177</v>
@@ -3832,418 +3889,444 @@
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K109">
-        <v>0.1411290322580645</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="L109">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M109">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109">
-        <v>213</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K110">
-        <v>0.1282420749279539</v>
+        <v>0.1347053320860618</v>
       </c>
       <c r="L110">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="M110">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="N110">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O110">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>605</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K111">
-        <v>0.1231203007518797</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="L111">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="M111">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="N111">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>933</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.115979381443299</v>
+        <v>0.1195965417867435</v>
       </c>
       <c r="L112">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M112">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="N112">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O112">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>343</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>0.1139705882352941</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="L113">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M113">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>241</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K114">
-        <v>0.1053604436229205</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L114">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M114">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N114">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O114">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>484</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K115">
-        <v>0.1046831955922865</v>
+        <v>0.1027216856892011</v>
       </c>
       <c r="L115">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="M115">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="N115">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="O115">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>325</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K116">
-        <v>0.1041119860017498</v>
+        <v>0.1004901960784314</v>
       </c>
       <c r="L116">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="M116">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="N116">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O116">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>1024</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K117">
-        <v>0.1002444987775061</v>
+        <v>0.09814814814814815</v>
       </c>
       <c r="L117">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M117">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N117">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O117">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>368</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K118">
-        <v>0.09623430962343096</v>
+        <v>0.09768637532133675</v>
       </c>
       <c r="L118">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M118">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118">
-        <v>216</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K119">
-        <v>0.0945945945945946</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="L119">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M119">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N119">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O119">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>469</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K120">
-        <v>0.08055555555555556</v>
+        <v>0.09205020920502092</v>
       </c>
       <c r="L120">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M120">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N120">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>331</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K121">
-        <v>0.07038123167155426</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L121">
         <v>24</v>
       </c>
       <c r="M121">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N121">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O121">
-        <v>0.14</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>317</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K122">
-        <v>0.06657789613848203</v>
+        <v>0.08011049723756906</v>
       </c>
       <c r="L122">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M122">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="N122">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="O122">
-        <v>0.24</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>701</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K123">
-        <v>0.06571428571428571</v>
+        <v>0.06693440428380187</v>
       </c>
       <c r="L123">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M123">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N123">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="O123">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>327</v>
+        <v>697</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K124">
-        <v>0.04551724137931035</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="L124">
+        <v>24</v>
+      </c>
+      <c r="M124">
         <v>33</v>
       </c>
-      <c r="M124">
-        <v>43</v>
-      </c>
       <c r="N124">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="O124">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>692</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K125">
+        <v>0.0440771349862259</v>
+      </c>
+      <c r="L125">
+        <v>32</v>
+      </c>
+      <c r="M125">
+        <v>41</v>
+      </c>
+      <c r="N125">
+        <v>0.78</v>
+      </c>
+      <c r="O125">
+        <v>0.22</v>
+      </c>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
